--- a/medicine/Pharmacie/Prucalopride/Prucalopride.xlsx
+++ b/medicine/Pharmacie/Prucalopride/Prucalopride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prucalopride est une molécule agoniste du récepteur sérotoninergique de type 5-HT4 et utilisé comme laxatif. Il est déconseillé par la revue médicale indépendante Prescrire[2].
+Le prucalopride est une molécule agoniste du récepteur sérotoninergique de type 5-HT4 et utilisé comme laxatif. Il est déconseillé par la revue médicale indépendante Prescrire.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il augmente la motilité du tube disgestif.
 </t>
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est efficace dans la constipation chronique[3],[4]. Le polyéthylène glycol est cependant aussi efficace et mieux toléré[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est efficace dans la constipation chronique,. Le polyéthylène glycol est cependant aussi efficace et mieux toléré.
 Il sera utilisé en seconde intention en cas d'échec des laxatifs.
 </t>
         </is>
